--- a/MRPs/Pristine/PRP of Lateral Hires@Pristine - Heeralu Pathirannahalage Amod Pathirana(185).xlsx
+++ b/MRPs/Pristine/PRP of Lateral Hires@Pristine - Heeralu Pathirannahalage Amod Pathirana(185).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pristine\Desktop\Int_info\MRPs\Pristine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD80462-6B9D-41E3-ADA8-BB6BF90A81FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB09D2E-D5FB-48C6-853E-03FCA154F4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRP During Internship" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Date Commenced</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Signature (Akila Sajith Kumar) - Reporting Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">araliya pre presentaion with dilini </t>
   </si>
 </sst>
 </file>
@@ -662,111 +665,111 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,60 +1162,60 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="53" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.5546875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="42.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="42.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="53" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.44140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="42.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.42578125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="42.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="53" style="1" customWidth="1"/>
-    <col min="22" max="22" width="33.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="1.5546875" style="1" customWidth="1"/>
-    <col min="24" max="25" width="42.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="33.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="1.5703125" style="1" customWidth="1"/>
+    <col min="24" max="25" width="42.85546875" style="1" customWidth="1"/>
     <col min="26" max="26" width="53" style="1" customWidth="1"/>
-    <col min="27" max="27" width="33.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="1.33203125" style="1" customWidth="1"/>
-    <col min="29" max="30" width="42.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="33.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="1.28515625" style="1" customWidth="1"/>
+    <col min="29" max="30" width="42.85546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="53" style="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5546875" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.109375" style="1"/>
+    <col min="32" max="32" width="24.5703125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="55"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="C4" s="53"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
@@ -1252,62 +1255,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="18"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="D11" s="36" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="36" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="36" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="36" t="s">
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="36" t="s">
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="36" t="s">
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="39"/>
-    </row>
-    <row r="12" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="41"/>
+    </row>
+    <row r="12" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1323,7 @@
       <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +1336,7 @@
       <c r="L12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="34"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1346,7 +1349,7 @@
       <c r="Q12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="34"/>
+      <c r="R12" s="36"/>
       <c r="S12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1359,7 +1362,7 @@
       <c r="V12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="34"/>
+      <c r="W12" s="36"/>
       <c r="X12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1372,7 +1375,7 @@
       <c r="AA12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AB12" s="34"/>
+      <c r="AB12" s="36"/>
       <c r="AC12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1386,14 +1389,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="234.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="14" t="s">
         <v>37</v>
       </c>
@@ -1406,40 +1409,40 @@
       <c r="G13" s="30">
         <v>7</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="14"/>
       <c r="J13" s="26"/>
       <c r="K13" s="20"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="14"/>
       <c r="O13" s="26"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="34"/>
+      <c r="R13" s="36"/>
       <c r="S13" s="14"/>
       <c r="T13" s="26"/>
       <c r="U13" s="20"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="34"/>
+      <c r="W13" s="36"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="34"/>
+      <c r="AB13" s="36"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="20"/>
       <c r="AF13" s="15"/>
     </row>
-    <row r="14" spans="1:32" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="294" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="22" t="s">
         <v>42</v>
       </c>
@@ -1452,40 +1455,40 @@
       <c r="G14" s="30">
         <v>7</v>
       </c>
-      <c r="H14" s="34"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="14"/>
       <c r="J14" s="26"/>
       <c r="K14" s="20"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="34"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="14"/>
       <c r="O14" s="26"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="34"/>
+      <c r="R14" s="36"/>
       <c r="S14" s="14"/>
       <c r="T14" s="26"/>
       <c r="U14" s="20"/>
       <c r="V14" s="15"/>
-      <c r="W14" s="34"/>
+      <c r="W14" s="36"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="34"/>
+      <c r="AB14" s="36"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="20"/>
       <c r="AF14" s="15"/>
     </row>
-    <row r="15" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="141" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>3</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="22" t="s">
         <v>38</v>
       </c>
@@ -1498,40 +1501,40 @@
       <c r="G15" s="30">
         <v>9</v>
       </c>
-      <c r="H15" s="34"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="14"/>
       <c r="J15" s="26"/>
       <c r="K15" s="20"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="34"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="14"/>
       <c r="O15" s="26"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="34"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="14"/>
       <c r="T15" s="26"/>
       <c r="U15" s="20"/>
       <c r="V15" s="15"/>
-      <c r="W15" s="34"/>
+      <c r="W15" s="36"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="26"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="34"/>
+      <c r="AB15" s="36"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="15"/>
     </row>
-    <row r="16" spans="1:32" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>4</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="22" t="s">
         <v>39</v>
       </c>
@@ -1544,40 +1547,40 @@
       <c r="G16" s="30">
         <v>9</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="14"/>
       <c r="J16" s="26"/>
       <c r="K16" s="20"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="34"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="14"/>
       <c r="O16" s="26"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="34"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="14"/>
       <c r="T16" s="26"/>
       <c r="U16" s="20"/>
       <c r="V16" s="15"/>
-      <c r="W16" s="34"/>
+      <c r="W16" s="36"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="34"/>
+      <c r="AB16" s="36"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="20"/>
       <c r="AF16" s="15"/>
     </row>
-    <row r="17" spans="1:32" ht="69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>5</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="22" t="s">
         <v>40</v>
       </c>
@@ -1590,40 +1593,40 @@
       <c r="G17" s="30">
         <v>8</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="14"/>
       <c r="J17" s="26"/>
       <c r="K17" s="20"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="34"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="14"/>
       <c r="O17" s="26"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="34"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="14"/>
       <c r="T17" s="26"/>
       <c r="U17" s="20"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="34"/>
+      <c r="W17" s="36"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="26"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="34"/>
+      <c r="AB17" s="36"/>
       <c r="AC17" s="14"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="20"/>
       <c r="AF17" s="15"/>
     </row>
-    <row r="18" spans="1:32" ht="234.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>6</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="22" t="s">
         <v>41</v>
       </c>
@@ -1636,258 +1639,260 @@
       <c r="G18" s="30">
         <v>7</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="J18" s="26"/>
       <c r="K18" s="20"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="34"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="14"/>
       <c r="O18" s="26"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="34"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="14"/>
       <c r="T18" s="26"/>
       <c r="U18" s="20"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="34"/>
+      <c r="W18" s="36"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="26"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="34"/>
+      <c r="AB18" s="36"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="26"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="15"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="40" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="40" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="40" t="s">
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="40" t="s">
+      <c r="O19" s="43"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="40" t="s">
+      <c r="T19" s="43"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="40" t="s">
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="43"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="45"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="46"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="44" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="46"/>
       <c r="L20" s="47"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="44" t="s">
+      <c r="M20" s="36"/>
+      <c r="N20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="45"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="47"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="44" t="s">
+      <c r="R20" s="36"/>
+      <c r="S20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="45"/>
+      <c r="T20" s="34"/>
       <c r="U20" s="46"/>
       <c r="V20" s="47"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="44" t="s">
+      <c r="W20" s="36"/>
+      <c r="X20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Y20" s="45"/>
+      <c r="Y20" s="34"/>
       <c r="Z20" s="46"/>
       <c r="AA20" s="47"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="44" t="s">
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AD20" s="45"/>
+      <c r="AD20" s="34"/>
       <c r="AE20" s="46"/>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21"/>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="48"/>
       <c r="G21" s="49"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="44" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="48"/>
       <c r="L21" s="49"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="44" t="s">
+      <c r="M21" s="36"/>
+      <c r="N21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="45"/>
+      <c r="O21" s="34"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="49"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="44" t="s">
+      <c r="R21" s="36"/>
+      <c r="S21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="T21" s="45"/>
+      <c r="T21" s="34"/>
       <c r="U21" s="48"/>
       <c r="V21" s="49"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="44" t="s">
+      <c r="W21" s="36"/>
+      <c r="X21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="Y21" s="45"/>
+      <c r="Y21" s="34"/>
       <c r="Z21" s="48"/>
       <c r="AA21" s="49"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="44" t="s">
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AD21" s="45"/>
+      <c r="AD21" s="34"/>
       <c r="AE21" s="48"/>
       <c r="AF21" s="49"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="48"/>
       <c r="G22" s="49"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="44" t="s">
+      <c r="H22" s="36"/>
+      <c r="I22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="45"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="48"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="44" t="s">
+      <c r="M22" s="36"/>
+      <c r="N22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="45"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="49"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="44" t="s">
+      <c r="R22" s="36"/>
+      <c r="S22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="45"/>
+      <c r="T22" s="34"/>
       <c r="U22" s="48"/>
       <c r="V22" s="49"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="44" t="s">
+      <c r="W22" s="36"/>
+      <c r="X22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="45"/>
+      <c r="Y22" s="34"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="49"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="44" t="s">
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="45"/>
+      <c r="AD22" s="34"/>
       <c r="AE22" s="48"/>
       <c r="AF22" s="49"/>
     </row>
-    <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="50" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="50" t="s">
+      <c r="J23" s="32"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="50" t="s">
+      <c r="O23" s="32"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="50" t="s">
+      <c r="T23" s="32"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="50" t="s">
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="53"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="51"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1897,36 +1902,94 @@
       <c r="G24" s="2"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C29" s="23"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AB11:AB23"/>
+    <mergeCell ref="R11:R23"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="W11:W23"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
@@ -1943,64 +2006,6 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="W11:W23"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="AB11:AB23"/>
-    <mergeCell ref="R11:R23"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="F21">
     <cfRule type="containsBlanks" dxfId="5" priority="8">
@@ -2062,57 +2067,57 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="21"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>10</v>
       </c>
